--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9480" windowHeight="6180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Nombre</t>
   </si>
@@ -53,16 +53,33 @@
   </si>
   <si>
     <t>correo</t>
+  </si>
+  <si>
+    <t>juan@correo.es</t>
+  </si>
+  <si>
+    <t>Luis@correo.es</t>
+  </si>
+  <si>
+    <t>Ana@correo.es</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,14 +102,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,7 +394,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,6 +426,9 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D2">
         <v>234</v>
       </c>
@@ -420,6 +443,9 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D3">
         <v>345</v>
       </c>
@@ -434,7 +460,9 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D4">
         <v>456</v>
       </c>
@@ -443,7 +471,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23550" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Nombre</t>
   </si>
   <si>
     <t>Colegio</t>
-  </si>
-  <si>
-    <t>Mesa</t>
   </si>
   <si>
     <t>NIF</t>
@@ -394,7 +391,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E7" sqref="E1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,67 +404,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>234</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>345</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>456</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
